--- a/Banco Central/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/Banco Central/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -569,6 +569,24 @@
   </si>
   <si>
     <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>31-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -926,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2945,6 +2963,72 @@
         <v>0</v>
       </c>
     </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>449</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185">
+        <v>449</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186">
+        <v>449</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187">
+        <v>449</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>449</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>449</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
+++ b/Banco Central/5/7/3/Programa de reinversión de bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3029,6 +3032,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190">
+        <v>449</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
